--- a/test_a.xlsx
+++ b/test_a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\huyunan\git\excel-diff-yu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403D426C-0CDA-42E0-A733-29FBB3AF3AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E822EE6-B2B7-4C1B-BBFC-8AF67B25B794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,12 +132,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -420,129 +436,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>43</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>46</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>47</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
